--- a/AtWork/Hardware/Material-FR.xlsx
+++ b/AtWork/Hardware/Material-FR.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuil1!$A$1:$F$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuil1!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">https://fr.aliexpress.com/item/1005005989323670.html</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fr.aliexpress.com/item/1005006183365085.html</t>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/1005004227130782.html</t>
   </si>
   <si>
     <t xml:space="preserve">S Batt</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Support pile 9V à clipser</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fr.aliexpress.com/item/1005004852892039.html</t>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/32945156022.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://fr.aliexpress.com/item/1005004143955472.html</t>
@@ -121,10 +121,19 @@
     <t xml:space="preserve">https://fr.aliexpress.com/item/1005002457162436.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Fil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/5 couleur AWG24 / 25m pour plusieurs coffrets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/1005005048098404.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCB</t>
   </si>
   <si>
-    <t xml:space="preserve">PCB précablè</t>
+    <t xml:space="preserve">PCB précablè (prix par 20 pièces) ( by 20 units)</t>
   </si>
   <si>
     <t xml:space="preserve">JLCPCB</t>
@@ -233,37 +242,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -283,221 +300,237 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="48.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="56.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="55.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>0.15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2" t="n">
-        <f aca="false">SUM(E$3:E$10)</f>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="3" t="n">
+        <f aca="false">SUM(E$3:E$11)</f>
         <v>17.15</v>
       </c>
     </row>

--- a/AtWork/Hardware/Material-FR.xlsx
+++ b/AtWork/Hardware/Material-FR.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">SW</t>
   </si>
   <si>
-    <t xml:space="preserve">Interupteur a basculle On/Off</t>
+    <t xml:space="preserve">Interrupteur a bascule On/Off</t>
   </si>
   <si>
     <t xml:space="preserve">https://fr.aliexpress.com/item/1005005989323670.html</t>
@@ -242,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,10 +277,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -302,8 +298,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,7 +432,7 @@
       <c r="E7" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -450,7 +446,7 @@
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="8" t="n">
